--- a/MOSAIQ QA Patients.xlsx
+++ b/MOSAIQ QA Patients.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Morning Warmup" sheetId="1" r:id="rId1"/>
-    <sheet name="Penta-Guide" sheetId="4" r:id="rId2"/>
+    <sheet name="How to Use" sheetId="5" r:id="rId1"/>
+    <sheet name="Morning Warmup" sheetId="1" r:id="rId2"/>
+    <sheet name="Penta-Guide" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -810,6 +811,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="5448300" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>How to Use:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>This spreadsheet describes the QA patients that we periodically create in MOSAIQ. It is necessary to periodically create new patients because MOSAIQ slows down as a patient acquires more images.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>There is a sheet for each patient: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Morning Warmup</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Penta-Guide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>. The sheet tells how often to create a new patient of this type, the registration information, and the diagnosis and treatment information.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,9 +1187,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +3225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>

--- a/MOSAIQ QA Patients.xlsx
+++ b/MOSAIQ QA Patients.xlsx
@@ -820,13 +820,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -835,8 +835,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="28575"/>
-          <a:ext cx="5448300" cy="1447800"/>
+          <a:off x="28575" y="28574"/>
+          <a:ext cx="5448300" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,7 +911,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>. The sheet tells how often to create a new patient of this type, the registration information, and the diagnosis and treatment information.</a:t>
+            <a:t>. The sheet tells how often to create a new patient of this type, the registration information, and the diagnosis, and treatment information.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
